--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_per_day_fixed_period_8_sine_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_per_day_fixed_period_8_sine_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.29000000000005</v>
+        <v>22.45000000000007</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01805327679612623</v>
+        <v>0.0003538960772716537</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01805327679612623</v>
+        <v>0.0003538960772716537</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>32.61166087252796</v>
+        <v>45.55084668055913</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[3.630293447021991, 61.59302829803392]</t>
+          <t>[21.73587913614878, 69.36581422496948]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.0282835898453031</v>
+        <v>0.0003680528175031839</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0282835898453031</v>
+        <v>0.0003680528175031839</v>
       </c>
       <c r="P2" t="n">
-        <v>1.150973885098963</v>
+        <v>1.427710775505271</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.10692107129334705, 2.19502669890458]</t>
+          <t>[0.77360539818127, 2.081816152829272]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.03147314154955705</v>
+        <v>6.655226570617678e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>0.03147314154955705</v>
+        <v>6.655226570617678e-05</v>
       </c>
       <c r="T2" t="n">
-        <v>62.88194618089516</v>
+        <v>65.96160479007658</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[47.63852430416567, 78.12536805762464]</t>
+          <t>[51.52302525582688, 80.40018432432628]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.230981983013635e-10</v>
+        <v>6.600275881396556e-12</v>
       </c>
       <c r="W2" t="n">
-        <v>1.230981983013635e-10</v>
+        <v>6.600275881396556e-12</v>
       </c>
       <c r="X2" t="n">
-        <v>18.20684684684688</v>
+        <v>17.3487487487488</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.50300300300303</v>
+        <v>15.01161161161166</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.91069069069073</v>
+        <v>19.68588588588595</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.29000000000005</v>
+        <v>22.45000000000007</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.006177354849101646</v>
+        <v>6.644683244516614e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>0.006177354849101646</v>
+        <v>6.644683244516614e-05</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>33.81488567009285</v>
+        <v>40.64852895034845</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[11.091515402105031, 56.53825593808067]</t>
+          <t>[19.344656099577726, 61.95240180111917]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.004423105785109183</v>
+        <v>0.0003788008426344192</v>
       </c>
       <c r="O3" t="n">
-        <v>0.004423105785109183</v>
+        <v>0.0003788008426344192</v>
       </c>
       <c r="P3" t="n">
-        <v>1.528342372016656</v>
+        <v>1.930868758062195</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.6352369529781168, 2.4214477910551953]</t>
+          <t>[1.3648160276856558, 2.4969214884387334]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.001241126972097994</v>
+        <v>1.586998932268102e-08</v>
       </c>
       <c r="S3" t="n">
-        <v>0.001241126972097994</v>
+        <v>1.586998932268102e-08</v>
       </c>
       <c r="T3" t="n">
-        <v>52.310385355832</v>
+        <v>55.17368830461594</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[38.496229469038695, 66.1245412426253]</t>
+          <t>[43.529992568415466, 66.8173840408164]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.210316291633262e-09</v>
+        <v>2.198907722572585e-12</v>
       </c>
       <c r="W3" t="n">
-        <v>1.210316291633262e-09</v>
+        <v>2.198907722572585e-12</v>
       </c>
       <c r="X3" t="n">
-        <v>16.86810810810814</v>
+        <v>15.550950950951</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.69975975975979</v>
+        <v>13.52842842842847</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.0364564564565</v>
+        <v>17.57347347347353</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.29000000000005</v>
+        <v>22.45000000000007</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0001002619043722897</v>
+        <v>0.0001157186035837254</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0001002619043722897</v>
+        <v>0.0001157186035837254</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>46.06910175018805</v>
+        <v>45.59037829673009</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[19.434113199189767, 72.70409030118634]</t>
+          <t>[19.10224625340436, 72.07851034005583]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.001113612728541824</v>
+        <v>0.001170836354827731</v>
       </c>
       <c r="O4" t="n">
-        <v>0.001113612728541824</v>
+        <v>0.001170836354827731</v>
       </c>
       <c r="P4" t="n">
-        <v>2.232763547596349</v>
+        <v>2.094395102393195</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.6667108172198084, 2.7988162779728896]</t>
+          <t>[1.5031844728888082, 2.6856057318975814]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>4.151883281622304e-10</v>
+        <v>6.427593790547803e-09</v>
       </c>
       <c r="S4" t="n">
-        <v>4.151883281622304e-10</v>
+        <v>6.427593790547803e-09</v>
       </c>
       <c r="T4" t="n">
-        <v>58.78182790989663</v>
+        <v>64.46911500413115</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[44.96889763513892, 72.59475818465432]</t>
+          <t>[50.792328882130874, 78.14590112613143]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>5.160849525509548e-11</v>
+        <v>2.577937863179613e-12</v>
       </c>
       <c r="W4" t="n">
-        <v>5.160849525509548e-11</v>
+        <v>2.577937863179613e-12</v>
       </c>
       <c r="X4" t="n">
-        <v>14.36912912912916</v>
+        <v>14.96666666666672</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.36102102102104</v>
+        <v>12.85425425425429</v>
       </c>
       <c r="Z4" t="n">
-        <v>16.37723723723728</v>
+        <v>17.07907907907914</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.29000000000005</v>
+        <v>22.45000000000007</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0004967804603486226</v>
+        <v>0.003194008267874748</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0004967804603486226</v>
+        <v>0.003194008267874748</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>38.73662805412501</v>
+        <v>32.45443260551029</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[14.904628790402768, 62.568627317847245]</t>
+          <t>[8.42275098325247, 56.48611422776811]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.002044698343731</v>
+        <v>0.009244481087926859</v>
       </c>
       <c r="O5" t="n">
-        <v>0.002044698343731</v>
+        <v>0.009244481087926859</v>
       </c>
       <c r="P5" t="n">
-        <v>2.72334258058935</v>
+        <v>2.811395227536812</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[2.0440793041375027, 3.4026058570411974]</t>
+          <t>[1.943447707626119, 3.6793427474475053]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.681135313764571e-10</v>
+        <v>5.193637320211053e-08</v>
       </c>
       <c r="S5" t="n">
-        <v>2.681135313764571e-10</v>
+        <v>5.193637320211053e-08</v>
       </c>
       <c r="T5" t="n">
-        <v>50.00265797402773</v>
+        <v>52.96288517360776</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[36.65701731391129, 63.34829863414418]</t>
+          <t>[39.827546559121146, 66.09822378809437]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.589277154323554e-09</v>
+        <v>2.299143098127843e-10</v>
       </c>
       <c r="W5" t="n">
-        <v>1.589277154323554e-09</v>
+        <v>2.299143098127843e-10</v>
       </c>
       <c r="X5" t="n">
-        <v>12.6287687687688</v>
+        <v>12.40480480480484</v>
       </c>
       <c r="Y5" t="n">
-        <v>10.21903903903906</v>
+        <v>9.303603603603634</v>
       </c>
       <c r="Z5" t="n">
-        <v>15.03849849849853</v>
+        <v>15.50600600600605</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.29000000000005</v>
+        <v>22.45000000000007</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0003408506709670078</v>
+        <v>0.0008902669927851603</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0003408506709670078</v>
+        <v>0.0008902669927851603</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>41.67426083920276</v>
+        <v>45.78284940924772</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[20.266899754909744, 63.081621923495774]</t>
+          <t>[19.549565567430705, 72.01613325106473]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.0002980779697945302</v>
+        <v>0.001015446816576615</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0002980779697945302</v>
+        <v>0.001015446816576615</v>
       </c>
       <c r="P6" t="n">
         <v>-3.132158441416851</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-3.8365796169965436, -2.4277372658371577]</t>
+          <t>[-3.886895415252237, -2.377421467581465]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>1.464206533796641e-11</v>
+        <v>1.042734787404243e-10</v>
       </c>
       <c r="S6" t="n">
-        <v>1.464206533796641e-11</v>
+        <v>1.042734787404243e-10</v>
       </c>
       <c r="T6" t="n">
-        <v>61.25300092996321</v>
+        <v>63.29447550561103</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[47.27237147145155, 75.23363038847486]</t>
+          <t>[46.781740195023005, 79.80721081619906]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>2.246958175078362e-11</v>
+        <v>8.831080311466621e-10</v>
       </c>
       <c r="W6" t="n">
-        <v>2.246958175078362e-11</v>
+        <v>8.831080311466621e-10</v>
       </c>
       <c r="X6" t="n">
-        <v>11.11153153153155</v>
+        <v>11.19129129129133</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.61255255255257</v>
+        <v>8.494594594594624</v>
       </c>
       <c r="Z6" t="n">
-        <v>13.61051051051053</v>
+        <v>13.88798798798803</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.29000000000005</v>
+        <v>22.45000000000007</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1.887557876667501e-08</v>
+        <v>0.0002344499533761812</v>
       </c>
       <c r="I7" t="n">
-        <v>1.887557876667501e-08</v>
+        <v>0.0002344499533761812</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>60.68260890709546</v>
+        <v>38.27900908370535</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[39.850043874406694, 81.51517393978422]</t>
+          <t>[15.371466511732493, 61.186551655678215]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4.920579097511535e-07</v>
+        <v>0.001570716962324914</v>
       </c>
       <c r="O7" t="n">
-        <v>4.920579097511535e-07</v>
+        <v>0.001570716962324914</v>
       </c>
       <c r="P7" t="n">
-        <v>-2.80510575275485</v>
+        <v>-2.742211004935235</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-3.2076321388003883, -2.402579366709311]</t>
+          <t>[-3.396316382259236, -2.088105627611234]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>7.861844508738614e-11</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>7.861844508738614e-11</v>
       </c>
       <c r="T7" t="n">
-        <v>70.50484417884603</v>
+        <v>50.6145405415414</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[58.55235921335657, 82.45732914433549]</t>
+          <t>[38.32671311337247, 62.90236796971033]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.77635683940025e-15</v>
+        <v>1.282340900132795e-10</v>
       </c>
       <c r="W7" t="n">
-        <v>1.77635683940025e-15</v>
+        <v>1.282340900132795e-10</v>
       </c>
       <c r="X7" t="n">
-        <v>9.951291291291309</v>
+        <v>9.79799799799803</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.523303303303319</v>
+        <v>7.460860860860885</v>
       </c>
       <c r="Z7" t="n">
-        <v>11.3792792792793</v>
+        <v>12.13513513513517</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.59000000000009</v>
+        <v>22.46000000000007</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02191962050246898</v>
+        <v>0.0002245555907163244</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02191962050246898</v>
+        <v>0.0002245555907163244</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>31.66333286088684</v>
+        <v>49.57004182588435</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[3.9432669447002553, 59.383398777073424]</t>
+          <t>[19.623025501185353, 79.51705815058335]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.0261022608084529</v>
+        <v>0.001721263498479786</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0261022608084529</v>
+        <v>0.001721263498479786</v>
       </c>
       <c r="P8" t="n">
-        <v>-1.78621083807708</v>
+        <v>-2.289368820634003</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-2.9560531475219287, -0.6163685286322318]</t>
+          <t>[-2.8554215510105427, -1.7233160902574642]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.00356956734679037</v>
+        <v>2.115847497208279e-10</v>
       </c>
       <c r="S8" t="n">
-        <v>0.00356956734679037</v>
+        <v>2.115847497208279e-10</v>
       </c>
       <c r="T8" t="n">
-        <v>51.23806400472405</v>
+        <v>74.44731126629554</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[36.018017197787316, 66.45811081166079]</t>
+          <t>[58.99492788340764, 89.89969464918344]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.158132339502572e-08</v>
+        <v>1.323163800748262e-12</v>
       </c>
       <c r="W8" t="n">
-        <v>2.158132339502572e-08</v>
+        <v>1.323163800748262e-12</v>
       </c>
       <c r="X8" t="n">
-        <v>6.421981981982011</v>
+        <v>8.183623623623651</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.216036036036046</v>
+        <v>6.160200200200221</v>
       </c>
       <c r="Z8" t="n">
-        <v>10.62792792792798</v>
+        <v>10.20704704704708</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.59000000000009</v>
+        <v>22.46000000000007</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.002424700625030418</v>
+        <v>0.03193993342882528</v>
       </c>
       <c r="I9" t="n">
-        <v>0.002424700625030418</v>
+        <v>0.03193993342882528</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>35.60287960867992</v>
+        <v>28.43056849551103</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[9.92411070844944, 61.2816485089104]</t>
+          <t>[1.1663521053335941, 55.694784885688456]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.007652154534888433</v>
+        <v>0.04134171000953524</v>
       </c>
       <c r="O9" t="n">
-        <v>0.007652154534888433</v>
+        <v>0.04134171000953524</v>
       </c>
       <c r="P9" t="n">
-        <v>-2.213895123250465</v>
+        <v>-1.962316131972003</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-2.905737349266235, -1.522052897234695]</t>
+          <t>[-3.2831058361839274, -0.6415264277600778]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>6.803304519742426e-08</v>
+        <v>0.004481684548990561</v>
       </c>
       <c r="S9" t="n">
-        <v>6.803304519742426e-08</v>
+        <v>0.004481684548990561</v>
       </c>
       <c r="T9" t="n">
-        <v>56.08946728883711</v>
+        <v>56.83466701135893</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[42.62298901058125, 69.55594556709298]</t>
+          <t>[42.3789085026017, 71.29042552011616]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>9.425682456765117e-11</v>
+        <v>4.527667130105328e-10</v>
       </c>
       <c r="W9" t="n">
-        <v>9.425682456765117e-11</v>
+        <v>4.527667130105328e-10</v>
       </c>
       <c r="X9" t="n">
-        <v>7.959639639639672</v>
+        <v>7.014534534534555</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.472252252252275</v>
+        <v>2.293213213213219</v>
       </c>
       <c r="Z9" t="n">
-        <v>10.44702702702707</v>
+        <v>11.73585585585589</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.59000000000009</v>
+        <v>22.46000000000007</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.006807270770957219</v>
+        <v>1.674172860399725e-05</v>
       </c>
       <c r="I10" t="n">
-        <v>0.006807270770957219</v>
+        <v>1.674172860399725e-05</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>37.43034896176418</v>
+        <v>47.25907880275987</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[10.717859034031832, 64.14283888949653]</t>
+          <t>[26.444694571480767, 68.07346303403897]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.007075797947765139</v>
+        <v>3.755188972909274e-05</v>
       </c>
       <c r="O10" t="n">
-        <v>0.007075797947765139</v>
+        <v>3.755188972909274e-05</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.434000250287233</v>
+        <v>-1.446579199851156</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-2.377421467581465, -0.49057903299300065]</t>
+          <t>[-1.9623161319720026, -0.9308422677303092]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.003708789812816971</v>
+        <v>1.032259548061631e-06</v>
       </c>
       <c r="S10" t="n">
-        <v>0.003708789812816971</v>
+        <v>1.032259548061631e-06</v>
       </c>
       <c r="T10" t="n">
-        <v>68.41353831313114</v>
+        <v>57.87293859659376</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[52.82298237297946, 84.00409425328283]</t>
+          <t>[45.54071137031039, 70.20516582287712]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2.147659827755888e-11</v>
+        <v>2.950084621033966e-12</v>
       </c>
       <c r="W10" t="n">
-        <v>2.147659827755888e-11</v>
+        <v>2.950084621033966e-12</v>
       </c>
       <c r="X10" t="n">
-        <v>5.155675675675695</v>
+        <v>5.170970970970988</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.76378378378379</v>
+        <v>3.327407407407419</v>
       </c>
       <c r="Z10" t="n">
-        <v>8.547567567567601</v>
+        <v>7.014534534534556</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.59000000000009</v>
+        <v>22.46000000000007</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>2.537220467613288e-06</v>
+        <v>2.123110964302732e-05</v>
       </c>
       <c r="I11" t="n">
-        <v>2.537220467613288e-06</v>
+        <v>2.123110964302732e-05</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>55.22981157173812</v>
+        <v>43.5206860363897</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[29.531178012912804, 80.92844513056343]</t>
+          <t>[20.073724310188837, 66.96764776259056]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>8.266670098300288e-05</v>
+        <v>0.0005208191290431152</v>
       </c>
       <c r="O11" t="n">
-        <v>8.266670098300288e-05</v>
+        <v>0.0005208191290431152</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.779894872963232</v>
+        <v>-0.8553685703467711</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-1.2327370572644636, -0.32705268866200043]</t>
+          <t>[-1.3459476033397726, -0.3647895373537695]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.001163537437558926</v>
+        <v>0.001025320918382588</v>
       </c>
       <c r="S11" t="n">
-        <v>0.001163537437558926</v>
+        <v>0.001025320918382588</v>
       </c>
       <c r="T11" t="n">
-        <v>61.14156131898687</v>
+        <v>65.08533296353309</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[47.7036667778236, 74.57945586015015]</t>
+          <t>[53.219968892459995, 76.95069703460618]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>7.4442674247166e-12</v>
+        <v>2.087219286295294e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>7.4442674247166e-12</v>
+        <v>2.087219286295294e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>2.803963963963977</v>
+        <v>3.05761761761763</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.175855855855861</v>
+        <v>1.303983983983988</v>
       </c>
       <c r="Z11" t="n">
-        <v>4.432072072072092</v>
+        <v>4.811251251251273</v>
       </c>
     </row>
     <row r="12">
@@ -1425,7 +1425,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.59000000000009</v>
+        <v>22.46000000000007</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01272968403811892</v>
+        <v>0.003182887711549176</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01272968403811892</v>
+        <v>0.003182887711549176</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>35.02703241693168</v>
+        <v>31.6501094038903</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[4.5907665919371965, 65.46329824192617]</t>
+          <t>[9.14941159705208, 54.15080721072853]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.02505897165652593</v>
+        <v>0.006875263831952028</v>
       </c>
       <c r="O12" t="n">
-        <v>0.02505897165652593</v>
+        <v>0.006875263831952028</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.2767368904063083</v>
+        <v>-1.207579158136618</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-1.4025528763774258, 0.8490790955648091]</t>
+          <t>[-2.0000529806637726, -0.4151053356094625]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.6229476887542673</v>
+        <v>0.003631102127918728</v>
       </c>
       <c r="S12" t="n">
-        <v>0.6229476887542673</v>
+        <v>0.003631102127918728</v>
       </c>
       <c r="T12" t="n">
-        <v>56.72618695367581</v>
+        <v>50.63790274727806</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[40.22514230275496, 73.22723160459665]</t>
+          <t>[38.36503460269175, 62.910770891864374]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>1.321248310759415e-08</v>
+        <v>1.224258472376505e-10</v>
       </c>
       <c r="W12" t="n">
-        <v>1.321248310759415e-08</v>
+        <v>1.224258472376505e-10</v>
       </c>
       <c r="X12" t="n">
-        <v>0.9949549549549594</v>
+        <v>4.316636636636652</v>
       </c>
       <c r="Y12" t="n">
-        <v>-3.052702702702716</v>
+        <v>1.48384384384385</v>
       </c>
       <c r="Z12" t="n">
-        <v>5.042612612612635</v>
+        <v>7.149429429429453</v>
       </c>
     </row>
     <row r="13">
@@ -1511,7 +1511,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>22.59000000000009</v>
+        <v>22.46000000000007</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.001380569040266733</v>
+        <v>1.264800123734755e-05</v>
       </c>
       <c r="I13" t="n">
-        <v>0.001380569040266733</v>
+        <v>1.264800123734755e-05</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>36.30678233399524</v>
+        <v>53.82460182828545</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[13.565918880930667, 59.04764578705981]</t>
+          <t>[26.909650904908226, 80.73955275166267]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.002411520405518841</v>
+        <v>0.0002139089960273566</v>
       </c>
       <c r="O13" t="n">
-        <v>0.002411520405518841</v>
+        <v>0.0002139089960273566</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.2138421425866923</v>
+        <v>-0.8427896207828471</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-1.0251843894597323, 0.5975001042863477]</t>
+          <t>[-1.3333686537758478, -0.3522105877898465]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.5981338185491758</v>
+        <v>0.001193238414634257</v>
       </c>
       <c r="S13" t="n">
-        <v>0.5981338185491758</v>
+        <v>0.001193238414634257</v>
       </c>
       <c r="T13" t="n">
-        <v>54.86518904633693</v>
+        <v>68.16999700673001</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[41.27990767727901, 68.45047041539485]</t>
+          <t>[53.91387292283256, 82.42612109062748]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>2.201014925873324e-10</v>
+        <v>1.66600067075251e-12</v>
       </c>
       <c r="W13" t="n">
-        <v>2.201014925873324e-10</v>
+        <v>1.66600067075251e-12</v>
       </c>
       <c r="X13" t="n">
-        <v>0.7688288288288305</v>
+        <v>3.012652652652662</v>
       </c>
       <c r="Y13" t="n">
-        <v>-2.14819819819821</v>
+        <v>1.259019019019023</v>
       </c>
       <c r="Z13" t="n">
-        <v>3.685855855855871</v>
+        <v>4.7662862862863</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>22.59000000000009</v>
+        <v>22.46000000000007</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>9.751939813118504e-06</v>
+        <v>0.0002478723776599967</v>
       </c>
       <c r="I14" t="n">
-        <v>9.751939813118504e-06</v>
+        <v>0.0002478723776599967</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>51.85561929268405</v>
+        <v>50.40536898421409</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[26.717380388231945, 76.99385819713616]</t>
+          <t>[21.025071109247733, 79.78566685918044]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.0001436406102857113</v>
+        <v>0.001209740281455263</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0001436406102857113</v>
+        <v>0.001209740281455263</v>
       </c>
       <c r="P14" t="n">
-        <v>0.3962369112635775</v>
+        <v>0.4842895582110387</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-0.1320789704211922, 0.9245527929483472]</t>
+          <t>[-0.144657919985117, 1.1132370364071944]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.1378868762615157</v>
+        <v>0.1279405534660527</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1378868762615157</v>
+        <v>0.1279405534660527</v>
       </c>
       <c r="T14" t="n">
-        <v>66.13714369103116</v>
+        <v>67.16382438157326</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[52.491328473612526, 79.78295890844979]</t>
+          <t>[50.99057816801516, 83.33707059513137]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1.100897151218305e-12</v>
+        <v>1.023585660675508e-10</v>
       </c>
       <c r="W14" t="n">
-        <v>1.100897151218305e-12</v>
+        <v>1.023585660675508e-10</v>
       </c>
       <c r="X14" t="n">
-        <v>21.16540540540549</v>
+        <v>20.72884884884892</v>
       </c>
       <c r="Y14" t="n">
-        <v>19.26594594594602</v>
+        <v>18.48060060060066</v>
       </c>
       <c r="Z14" t="n">
-        <v>23.06486486486496</v>
+        <v>22.97709709709718</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>22.59000000000009</v>
+        <v>22.46000000000007</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.003516389673438591</v>
+        <v>0.01385237778633952</v>
       </c>
       <c r="I15" t="n">
-        <v>0.003516389673438591</v>
+        <v>0.01385237778633952</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>35.7381411566151</v>
+        <v>34.26899318373785</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[9.729023808616255, 61.747258504613946]</t>
+          <t>[5.386975903797747, 63.15101046367795]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.008170096721485276</v>
+        <v>0.02110871171927253</v>
       </c>
       <c r="O15" t="n">
-        <v>0.008170096721485276</v>
+        <v>0.02110871171927253</v>
       </c>
       <c r="P15" t="n">
-        <v>0.3710790121357324</v>
+        <v>1.125815985971117</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-0.5031579825569237, 1.2453160068283884]</t>
+          <t>[0.2704474156243455, 1.9811845563178876]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.3971313151948554</v>
+        <v>0.0110419675006963</v>
       </c>
       <c r="S15" t="n">
-        <v>0.3971313151948554</v>
+        <v>0.0110419675006963</v>
       </c>
       <c r="T15" t="n">
-        <v>50.48008672340314</v>
+        <v>69.46838579114986</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[36.06821976233579, 64.8919536844705]</t>
+          <t>[53.95508164492918, 84.98168993737053]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>8.452996524965783e-09</v>
+        <v>1.19071419391048e-11</v>
       </c>
       <c r="W15" t="n">
-        <v>8.452996524965783e-09</v>
+        <v>1.19071419391048e-11</v>
       </c>
       <c r="X15" t="n">
-        <v>21.25585585585594</v>
+        <v>18.4356356356357</v>
       </c>
       <c r="Y15" t="n">
-        <v>18.11270270270277</v>
+        <v>15.37801801801807</v>
       </c>
       <c r="Z15" t="n">
-        <v>24.39900900900911</v>
+        <v>21.49325325325333</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_per_day_fixed_period_8_sine_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_per_day_fixed_period_8_sine_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.45000000000007</v>
+        <v>22.33000000000005</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0003538960772716537</v>
+        <v>0.0001602538542129217</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0003538960772716537</v>
+        <v>0.0001602538542129217</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>45.55084668055913</v>
+        <v>46.67965309980045</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[21.73587913614878, 69.36581422496948]</t>
+          <t>[22.755177623264288, 70.6041285763366]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.0003680528175031839</v>
+        <v>0.0002900294549028626</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0003680528175031839</v>
+        <v>0.0002900294549028626</v>
       </c>
       <c r="P2" t="n">
-        <v>1.427710775505271</v>
+        <v>1.641552918091964</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.77360539818127, 2.081816152829272]</t>
+          <t>[1.0126054398958093, 2.270500396288119]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>6.655226570617678e-05</v>
+        <v>3.894279836380576e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>6.655226570617678e-05</v>
+        <v>3.894279836380576e-06</v>
       </c>
       <c r="T2" t="n">
-        <v>65.96160479007658</v>
+        <v>67.84829229044243</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[51.52302525582688, 80.40018432432628]</t>
+          <t>[53.84157337899069, 81.85501120189417]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>6.600275881396556e-12</v>
+        <v>1.119992987241858e-12</v>
       </c>
       <c r="W2" t="n">
-        <v>6.600275881396556e-12</v>
+        <v>1.119992987241858e-12</v>
       </c>
       <c r="X2" t="n">
-        <v>17.3487487487488</v>
+        <v>16.49603603603607</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.01161161161166</v>
+        <v>14.26080080080083</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.68588588588595</v>
+        <v>18.73127127127131</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.45000000000007</v>
+        <v>22.33000000000005</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>6.644683244516614e-05</v>
+        <v>0.003309899220806822</v>
       </c>
       <c r="I3" t="n">
-        <v>6.644683244516614e-05</v>
+        <v>0.003309899220806822</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>40.64852895034845</v>
+        <v>39.64472279288307</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[19.344656099577726, 61.95240180111917]</t>
+          <t>[12.486858197116746, 66.8025873886494]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.0003788008426344192</v>
+        <v>0.005163650398891884</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0003788008426344192</v>
+        <v>0.005163650398891884</v>
       </c>
       <c r="P3" t="n">
-        <v>1.930868758062195</v>
+        <v>1.817658211986887</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.3648160276856558, 2.4969214884387334]</t>
+          <t>[1.0000264903318863, 2.6352899336418885]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.586998932268102e-08</v>
+        <v>5.119523595276121e-05</v>
       </c>
       <c r="S3" t="n">
-        <v>1.586998932268102e-08</v>
+        <v>5.119523595276121e-05</v>
       </c>
       <c r="T3" t="n">
-        <v>55.17368830461594</v>
+        <v>57.9390644908289</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[43.529992568415466, 66.8173840408164]</t>
+          <t>[42.591725884679086, 73.28640309697872]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.198907722572585e-12</v>
+        <v>1.309225616807907e-09</v>
       </c>
       <c r="W3" t="n">
-        <v>2.198907722572585e-12</v>
+        <v>1.309225616807907e-09</v>
       </c>
       <c r="X3" t="n">
-        <v>15.550950950951</v>
+        <v>15.87017017017021</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.52842842842847</v>
+        <v>12.96436436436439</v>
       </c>
       <c r="Z3" t="n">
-        <v>17.57347347347353</v>
+        <v>18.77597597597602</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.45000000000007</v>
+        <v>22.33000000000005</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0001157186035837254</v>
+        <v>1.549879958928635e-06</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0001157186035837254</v>
+        <v>1.549879958928635e-06</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>45.59037829673009</v>
+        <v>55.67849903726842</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[19.10224625340436, 72.07851034005583]</t>
+          <t>[29.815683482053956, 81.54131459248288]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.001170836354827731</v>
+        <v>8.071522613040116e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>0.001170836354827731</v>
+        <v>8.071522613040116e-05</v>
       </c>
       <c r="P4" t="n">
-        <v>2.094395102393195</v>
+        <v>2.434026740619119</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.5031844728888082, 2.6856057318975814]</t>
+          <t>[1.9811845563178876, 2.8868689249203507]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>6.427593790547803e-09</v>
+        <v>4.085620730620576e-14</v>
       </c>
       <c r="S4" t="n">
-        <v>6.427593790547803e-09</v>
+        <v>4.085620730620576e-14</v>
       </c>
       <c r="T4" t="n">
-        <v>64.46911500413115</v>
+        <v>63.05455019053148</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[50.792328882130874, 78.14590112613143]</t>
+          <t>[49.7222252990184, 76.38687508204455]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.577937863179613e-12</v>
+        <v>2.330580173293129e-12</v>
       </c>
       <c r="W4" t="n">
-        <v>2.577937863179613e-12</v>
+        <v>2.330580173293129e-12</v>
       </c>
       <c r="X4" t="n">
-        <v>14.96666666666672</v>
+        <v>13.67963963963967</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.85425425425429</v>
+        <v>12.0702702702703</v>
       </c>
       <c r="Z4" t="n">
-        <v>17.07907907907914</v>
+        <v>15.28900900900904</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.45000000000007</v>
+        <v>22.33000000000005</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.003194008267874748</v>
+        <v>0.002325734985766714</v>
       </c>
       <c r="I5" t="n">
-        <v>0.003194008267874748</v>
+        <v>0.002325734985766714</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>32.45443260551029</v>
+        <v>36.30851248826665</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[8.42275098325247, 56.48611422776811]</t>
+          <t>[10.55097625467269, 62.06604872186061]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.009244481087926859</v>
+        <v>0.006766142664972774</v>
       </c>
       <c r="O5" t="n">
-        <v>0.009244481087926859</v>
+        <v>0.006766142664972774</v>
       </c>
       <c r="P5" t="n">
-        <v>2.811395227536812</v>
+        <v>2.836553126664658</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.943447707626119, 3.6793427474475053]</t>
+          <t>[1.9811845563178871, 3.6919216970114292]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>5.193637320211053e-08</v>
+        <v>3.052692520988387e-08</v>
       </c>
       <c r="S5" t="n">
-        <v>5.193637320211053e-08</v>
+        <v>3.052692520988387e-08</v>
       </c>
       <c r="T5" t="n">
-        <v>52.96288517360776</v>
+        <v>61.60629575649011</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[39.827546559121146, 66.09822378809437]</t>
+          <t>[47.32232478841871, 75.89026672456151]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2.299143098127843e-10</v>
+        <v>3.527467207220525e-11</v>
       </c>
       <c r="W5" t="n">
-        <v>2.299143098127843e-10</v>
+        <v>3.527467207220525e-11</v>
       </c>
       <c r="X5" t="n">
-        <v>12.40480480480484</v>
+        <v>12.24908908908912</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.303603603603634</v>
+        <v>9.209169169169186</v>
       </c>
       <c r="Z5" t="n">
-        <v>15.50600600600605</v>
+        <v>15.28900900900905</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.45000000000007</v>
+        <v>22.33000000000005</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008902669927851603</v>
+        <v>0.002893679340678523</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0008902669927851603</v>
+        <v>0.002893679340678523</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>45.78284940924772</v>
+        <v>35.95960799114276</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[19.549565567430705, 72.01613325106473]</t>
+          <t>[9.639294703684236, 62.279921278601286]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.001015446816576615</v>
+        <v>0.008513473740266342</v>
       </c>
       <c r="O6" t="n">
-        <v>0.001015446816576615</v>
+        <v>0.008513473740266342</v>
       </c>
       <c r="P6" t="n">
-        <v>-3.132158441416851</v>
+        <v>-2.767368904063081</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-3.886895415252237, -2.377421467581465]</t>
+          <t>[-3.622737474409851, -1.9120003337163105]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>1.042734787404243e-10</v>
+        <v>5.332931340973346e-08</v>
       </c>
       <c r="S6" t="n">
-        <v>1.042734787404243e-10</v>
+        <v>5.332931340973346e-08</v>
       </c>
       <c r="T6" t="n">
-        <v>63.29447550561103</v>
+        <v>56.88388490816511</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[46.781740195023005, 79.80721081619906]</t>
+          <t>[42.63152489614262, 71.13624492018761]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>8.831080311466621e-10</v>
+        <v>3.028319817133251e-10</v>
       </c>
       <c r="W6" t="n">
-        <v>8.831080311466621e-10</v>
+        <v>3.028319817133251e-10</v>
       </c>
       <c r="X6" t="n">
-        <v>11.19129129129133</v>
+        <v>9.835035035035057</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.494594594594624</v>
+        <v>6.795115115115131</v>
       </c>
       <c r="Z6" t="n">
-        <v>13.88798798798803</v>
+        <v>12.87495495495498</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.45000000000007</v>
+        <v>22.33000000000005</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0002344499533761812</v>
+        <v>0.005084968509949106</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0002344499533761812</v>
+        <v>0.005084968509949106</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>38.27900908370535</v>
+        <v>27.75999179637746</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[15.371466511732493, 61.186551655678215]</t>
+          <t>[5.791940321780238, 49.72804327097467]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.001570716962324914</v>
+        <v>0.01442194814704822</v>
       </c>
       <c r="O7" t="n">
-        <v>0.001570716962324914</v>
+        <v>0.01442194814704822</v>
       </c>
       <c r="P7" t="n">
-        <v>-2.742211004935235</v>
+        <v>-2.377421467581465</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-3.396316382259236, -2.088105627611234]</t>
+          <t>[-3.056684744033312, -1.6981581911296182]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>7.861844508738614e-11</v>
+        <v>8.609838841877604e-09</v>
       </c>
       <c r="S7" t="n">
-        <v>7.861844508738614e-11</v>
+        <v>8.609838841877604e-09</v>
       </c>
       <c r="T7" t="n">
-        <v>50.6145405415414</v>
+        <v>55.8636731099707</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[38.32671311337247, 62.90236796971033]</t>
+          <t>[44.48236642690557, 67.24497979303584]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.282340900132795e-10</v>
+        <v>7.438494264988549e-13</v>
       </c>
       <c r="W7" t="n">
-        <v>1.282340900132795e-10</v>
+        <v>7.438494264988549e-13</v>
       </c>
       <c r="X7" t="n">
-        <v>9.79799799799803</v>
+        <v>8.449189189189209</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.460860860860885</v>
+        <v>6.03513513513515</v>
       </c>
       <c r="Z7" t="n">
-        <v>12.13513513513517</v>
+        <v>10.86324324324327</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.46000000000007</v>
+        <v>22.40000000000006</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0002245555907163244</v>
+        <v>0.00357572416719909</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0002245555907163244</v>
+        <v>0.00357572416719909</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>49.57004182588435</v>
+        <v>33.6315858069965</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[19.623025501185353, 79.51705815058335]</t>
+          <t>[8.068523100923358, 59.19464851306964]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.001721263498479786</v>
+        <v>0.01107291474761074</v>
       </c>
       <c r="O8" t="n">
-        <v>0.001721263498479786</v>
+        <v>0.01107291474761074</v>
       </c>
       <c r="P8" t="n">
-        <v>-2.289368820634003</v>
+        <v>-2.654158357987773</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-2.8554215510105427, -1.7233160902574642]</t>
+          <t>[-3.4088953318231576, -1.8994213841523875]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>2.115847497208279e-10</v>
+        <v>7.678170987901467e-09</v>
       </c>
       <c r="S8" t="n">
-        <v>2.115847497208279e-10</v>
+        <v>7.678170987901467e-09</v>
       </c>
       <c r="T8" t="n">
-        <v>74.44731126629554</v>
+        <v>49.8591242025091</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[58.99492788340764, 89.89969464918344]</t>
+          <t>[36.33858969515963, 63.379658709858575]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.323163800748262e-12</v>
+        <v>2.378767849364749e-09</v>
       </c>
       <c r="W8" t="n">
-        <v>1.323163800748262e-12</v>
+        <v>2.378767849364749e-09</v>
       </c>
       <c r="X8" t="n">
-        <v>8.183623623623651</v>
+        <v>9.462262262262286</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.160200200200221</v>
+        <v>6.77157157157159</v>
       </c>
       <c r="Z8" t="n">
-        <v>10.20704704704708</v>
+        <v>12.15295295295298</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.46000000000007</v>
+        <v>22.40000000000006</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03193993342882528</v>
+        <v>0.0004665825043177474</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03193993342882528</v>
+        <v>0.0004665825043177474</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>28.43056849551103</v>
+        <v>43.306452930195</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[1.1663521053335941, 55.694784885688456]</t>
+          <t>[18.48536496017745, 68.12754090021255]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.04134171000953524</v>
+        <v>0.001018317942833802</v>
       </c>
       <c r="O9" t="n">
-        <v>0.04134171000953524</v>
+        <v>0.001018317942833802</v>
       </c>
       <c r="P9" t="n">
-        <v>-1.962316131972003</v>
+        <v>-1.836526636332771</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-3.2831058361839274, -0.6415264277600778]</t>
+          <t>[-2.490632013656773, -1.1824212590087702]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.004481684548990561</v>
+        <v>1.012558603630254e-06</v>
       </c>
       <c r="S9" t="n">
-        <v>0.004481684548990561</v>
+        <v>1.012558603630254e-06</v>
       </c>
       <c r="T9" t="n">
-        <v>56.83466701135893</v>
+        <v>72.73874210647132</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[42.3789085026017, 71.29042552011616]</t>
+          <t>[58.73196585575903, 86.74551835718361]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>4.527667130105328e-10</v>
+        <v>1.250111125727926e-13</v>
       </c>
       <c r="W9" t="n">
-        <v>4.527667130105328e-10</v>
+        <v>1.250111125727926e-13</v>
       </c>
       <c r="X9" t="n">
-        <v>7.014534534534555</v>
+        <v>6.547347347347364</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.293213213213219</v>
+        <v>4.215415415415424</v>
       </c>
       <c r="Z9" t="n">
-        <v>11.73585585585589</v>
+        <v>8.879279279279302</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.46000000000007</v>
+        <v>22.40000000000006</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1.674172860399725e-05</v>
+        <v>0.001457709085236902</v>
       </c>
       <c r="I10" t="n">
-        <v>1.674172860399725e-05</v>
+        <v>0.001457709085236902</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>47.25907880275987</v>
+        <v>40.7195428318045</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[26.444694571480767, 68.07346303403897]</t>
+          <t>[13.659151545075673, 67.77993411853332]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.755188972909274e-05</v>
+        <v>0.004035342612509707</v>
       </c>
       <c r="O10" t="n">
-        <v>3.755188972909274e-05</v>
+        <v>0.004035342612509707</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.446579199851156</v>
+        <v>-1.270473905956233</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.9623161319720026, -0.9308422677303092]</t>
+          <t>[-2.0126319302276956, -0.5283158816847697]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>1.032259548061631e-06</v>
+        <v>0.001236775754673403</v>
       </c>
       <c r="S10" t="n">
-        <v>1.032259548061631e-06</v>
+        <v>0.001236775754673403</v>
       </c>
       <c r="T10" t="n">
-        <v>57.87293859659376</v>
+        <v>65.51978011222971</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[45.54071137031039, 70.20516582287712]</t>
+          <t>[50.897619864505984, 80.14194035995344]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2.950084621033966e-12</v>
+        <v>1.168576346799455e-11</v>
       </c>
       <c r="W10" t="n">
-        <v>2.950084621033966e-12</v>
+        <v>1.168576346799455e-11</v>
       </c>
       <c r="X10" t="n">
-        <v>5.170970970970988</v>
+        <v>4.529329329329343</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.327407407407419</v>
+        <v>1.883483483483488</v>
       </c>
       <c r="Z10" t="n">
-        <v>7.014534534534556</v>
+        <v>7.175175175175198</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.46000000000007</v>
+        <v>22.40000000000006</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>2.123110964302732e-05</v>
+        <v>0.0009419941314572355</v>
       </c>
       <c r="I11" t="n">
-        <v>2.123110964302732e-05</v>
+        <v>0.0009419941314572355</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>43.5206860363897</v>
+        <v>37.13536369395755</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[20.073724310188837, 66.96764776259056]</t>
+          <t>[12.462523973183032, 61.80820341473207]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.0005208191290431152</v>
+        <v>0.00402764541525813</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0005208191290431152</v>
+        <v>0.00402764541525813</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.8553685703467711</v>
+        <v>-1.119526511189155</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-1.3459476033397726, -0.3647895373537695]</t>
+          <t>[-1.8239476867688484, -0.4151053356094625]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.001025320918382588</v>
+        <v>0.002513121202712076</v>
       </c>
       <c r="S11" t="n">
-        <v>0.001025320918382588</v>
+        <v>0.002513121202712076</v>
       </c>
       <c r="T11" t="n">
-        <v>65.08533296353309</v>
+        <v>52.19635011026402</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[53.219968892459995, 76.95069703460618]</t>
+          <t>[39.226280381462814, 65.16641983906523]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>2.087219286295294e-14</v>
+        <v>2.421773892535839e-10</v>
       </c>
       <c r="W11" t="n">
-        <v>2.087219286295294e-14</v>
+        <v>2.421773892535839e-10</v>
       </c>
       <c r="X11" t="n">
-        <v>3.05761761761763</v>
+        <v>3.991191191191202</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.303983983983988</v>
+        <v>1.479879879879885</v>
       </c>
       <c r="Z11" t="n">
-        <v>4.811251251251273</v>
+        <v>6.502502502502519</v>
       </c>
     </row>
     <row r="12">
@@ -1425,7 +1425,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.46000000000007</v>
+        <v>22.40000000000006</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.003182887711549176</v>
+        <v>3.633694050064751e-05</v>
       </c>
       <c r="I12" t="n">
-        <v>0.003182887711549176</v>
+        <v>3.633694050064751e-05</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>31.6501094038903</v>
+        <v>47.48561484359413</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[9.14941159705208, 54.15080721072853]</t>
+          <t>[24.267268259008546, 70.70396142817971]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.006875263831952028</v>
+        <v>0.0001606549857269268</v>
       </c>
       <c r="O12" t="n">
-        <v>0.006875263831952028</v>
+        <v>0.0001606549857269268</v>
       </c>
       <c r="P12" t="n">
-        <v>-1.207579158136618</v>
+        <v>-0.2264210921506153</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-2.0000529806637726, -0.4151053356094625]</t>
+          <t>[-0.8302106712189241, 0.3773684869176934]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.003631102127918728</v>
+        <v>0.4540109772096397</v>
       </c>
       <c r="S12" t="n">
-        <v>0.003631102127918728</v>
+        <v>0.4540109772096397</v>
       </c>
       <c r="T12" t="n">
-        <v>50.63790274727806</v>
+        <v>57.09598476879362</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[38.36503460269175, 62.910770891864374]</t>
+          <t>[43.38761728825174, 70.8043522493355]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>1.224258472376505e-10</v>
+        <v>9.430167757784602e-11</v>
       </c>
       <c r="W12" t="n">
-        <v>1.224258472376505e-10</v>
+        <v>9.430167757784602e-11</v>
       </c>
       <c r="X12" t="n">
-        <v>4.316636636636652</v>
+        <v>0.8072072072072096</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.48384384384385</v>
+        <v>-1.34534534534535</v>
       </c>
       <c r="Z12" t="n">
-        <v>7.149429429429453</v>
+        <v>2.959759759759769</v>
       </c>
     </row>
     <row r="13">
@@ -1511,7 +1511,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>22.46000000000007</v>
+        <v>22.40000000000006</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1.264800123734755e-05</v>
+        <v>0.0002316108897870706</v>
       </c>
       <c r="I13" t="n">
-        <v>1.264800123734755e-05</v>
+        <v>0.0002316108897870706</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>53.82460182828545</v>
+        <v>41.43458353506286</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[26.909650904908226, 80.73955275166267]</t>
+          <t>[20.040369017272, 62.82879805285371]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.0002139089960273566</v>
+        <v>0.0003171961681025515</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0002139089960273566</v>
+        <v>0.0003171961681025515</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.8427896207828471</v>
+        <v>-0.08805264694746207</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-1.3333686537758478, -0.3522105877898465]</t>
+          <t>[-0.767315923399309, 0.5912106295043849]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.001193238414634257</v>
+        <v>0.7952162570012316</v>
       </c>
       <c r="S13" t="n">
-        <v>0.001193238414634257</v>
+        <v>0.7952162570012316</v>
       </c>
       <c r="T13" t="n">
-        <v>68.16999700673001</v>
+        <v>56.20316606870615</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[53.91387292283256, 82.42612109062748]</t>
+          <t>[42.69207704496061, 69.7142550924517]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>1.66600067075251e-12</v>
+        <v>9.767697761731142e-11</v>
       </c>
       <c r="W13" t="n">
-        <v>1.66600067075251e-12</v>
+        <v>9.767697761731142e-11</v>
       </c>
       <c r="X13" t="n">
-        <v>3.012652652652662</v>
+        <v>0.3139139139139147</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.259019019019023</v>
+        <v>-2.107707707707713</v>
       </c>
       <c r="Z13" t="n">
-        <v>4.7662862862863</v>
+        <v>2.735535535535542</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>22.46000000000007</v>
+        <v>22.40000000000006</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0002478723776599967</v>
+        <v>3.226715880266795e-06</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0002478723776599967</v>
+        <v>3.226715880266795e-06</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>50.40536898421409</v>
+        <v>49.97482974614314</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[21.025071109247733, 79.78566685918044]</t>
+          <t>[26.993344916846354, 72.95631457543993]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.001209740281455263</v>
+        <v>7.014555856854621e-05</v>
       </c>
       <c r="O14" t="n">
-        <v>0.001209740281455263</v>
+        <v>7.014555856854621e-05</v>
       </c>
       <c r="P14" t="n">
-        <v>0.4842895582110387</v>
+        <v>0.3585000625718084</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-0.144657919985117, 1.1132370364071944]</t>
+          <t>[-0.11950002085727007, 0.836500146000887]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.1279405534660527</v>
+        <v>0.1378868762615164</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1279405534660527</v>
+        <v>0.1378868762615164</v>
       </c>
       <c r="T14" t="n">
-        <v>67.16382438157326</v>
+        <v>52.00149139847577</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[50.99057816801516, 83.33707059513137]</t>
+          <t>[39.58651808475602, 64.41646471219552]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1.023585660675508e-10</v>
+        <v>8.058020917189879e-11</v>
       </c>
       <c r="W14" t="n">
-        <v>1.023585660675508e-10</v>
+        <v>8.058020917189879e-11</v>
       </c>
       <c r="X14" t="n">
-        <v>20.72884884884892</v>
+        <v>21.12192192192198</v>
       </c>
       <c r="Y14" t="n">
-        <v>18.48060060060066</v>
+        <v>19.41781781781787</v>
       </c>
       <c r="Z14" t="n">
-        <v>22.97709709709718</v>
+        <v>22.82602602602609</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>22.46000000000007</v>
+        <v>22.40000000000006</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01385237778633952</v>
+        <v>0.0007027086839067609</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01385237778633952</v>
+        <v>0.0007027086839067609</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>34.26899318373785</v>
+        <v>45.06803170102791</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[5.386975903797747, 63.15101046367795]</t>
+          <t>[16.09541929904961, 74.04064410300622]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.02110871171927253</v>
+        <v>0.003040956527483152</v>
       </c>
       <c r="O15" t="n">
-        <v>0.02110871171927253</v>
+        <v>0.003040956527483152</v>
       </c>
       <c r="P15" t="n">
-        <v>1.125815985971117</v>
+        <v>0.6855527512338089</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[0.2704474156243455, 1.9811845563178876]</t>
+          <t>[0.08176317216549922, 1.2893423303021185]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.0110419675006963</v>
+        <v>0.02696124826939639</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0110419675006963</v>
+        <v>0.02696124826939639</v>
       </c>
       <c r="T15" t="n">
-        <v>69.46838579114986</v>
+        <v>54.50312234178698</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[53.95508164492918, 84.98168993737053]</t>
+          <t>[39.03345910562625, 69.97278557794772]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>1.19071419391048e-11</v>
+        <v>7.339870711220442e-09</v>
       </c>
       <c r="W15" t="n">
-        <v>1.19071419391048e-11</v>
+        <v>7.339870711220442e-09</v>
       </c>
       <c r="X15" t="n">
-        <v>18.4356356356357</v>
+        <v>19.95595595595601</v>
       </c>
       <c r="Y15" t="n">
-        <v>15.37801801801807</v>
+        <v>17.80340340340345</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.49325325325333</v>
+        <v>22.10850850850857</v>
       </c>
     </row>
   </sheetData>
